--- a/漏洞整合表_模板数据.xlsx
+++ b/漏洞整合表_模板数据.xlsx
@@ -1887,7 +1887,7 @@
   <sheetPr/>
   <dimension ref="A1:I370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
       <selection activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
